--- a/HW/Source/BluetoothGateway/Project Outputs for BluetoothGateway/BluetoothGateway_BOM.xlsx
+++ b/HW/Source/BluetoothGateway/Project Outputs for BluetoothGateway/BluetoothGateway_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10306"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/595a0f80f5149106/Disk_1/HCMUT-COURSE/HK242/BLUETOOTH_TRACKING_PROJECT/BLUETOOTH_TRACKING/HW/Source/BluetoothGateway/Project Outputs for BluetoothGateway/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{CD686366-632D-4D9E-A3FB-74A845F5F39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CA513B8-3529-4036-BDCC-D95A44F65187}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{CD686366-632D-4D9E-A3FB-74A845F5F39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7BA5B01-5E78-4146-96CF-73135B2C4093}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="18195" xr2:uid="{2EAF81B3-24DC-40DA-9505-CD0602CA6FD9}"/>
   </bookViews>
@@ -1327,11 +1327,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1339,7 +1339,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1426,8 +1426,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1762,20 +1762,20 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="3" width="18.51171875" customWidth="1"/>
+    <col min="4" max="4" width="15.56640625" customWidth="1"/>
+    <col min="5" max="5" width="25.25390625" customWidth="1"/>
+    <col min="6" max="6" width="48.546875" customWidth="1"/>
+    <col min="7" max="7" width="15.56640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" hidden="1">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" hidden="1">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" hidden="1">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" hidden="1">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" hidden="1">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" hidden="1">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" hidden="1">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" hidden="1">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15" hidden="1">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" hidden="1">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" hidden="1">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" hidden="1">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15" hidden="1">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15" hidden="1">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="15" hidden="1">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" hidden="1">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" hidden="1">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>121</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>125</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" hidden="1">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" hidden="1">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15" hidden="1">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>135</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15" hidden="1">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>139</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" hidden="1">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>143</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>148</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" hidden="1">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>150</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" hidden="1">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>155</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>160</v>
       </c>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>164</v>
       </c>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="15" hidden="1">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>168</v>
       </c>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="15" hidden="1">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>172</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" hidden="1">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>176</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>180</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" hidden="1">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>186</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" hidden="1">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>191</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="15" hidden="1">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="15" hidden="1">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>199</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" hidden="1">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>203</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" hidden="1">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>207</v>
       </c>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="15" hidden="1">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>211</v>
       </c>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="15" hidden="1">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>215</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="15" hidden="1">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>219</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="15" hidden="1">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>223</v>
       </c>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="15" hidden="1">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>227</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" hidden="1">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>231</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" hidden="1">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>235</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>239</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" hidden="1">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>241</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" hidden="1">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>245</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" hidden="1">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>249</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" hidden="1">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>253</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" hidden="1">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>258</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15" hidden="1">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>262</v>
       </c>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" hidden="1">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>266</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" hidden="1">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>270</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="15" hidden="1">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>274</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" hidden="1">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>278</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" hidden="1">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>282</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" hidden="1">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>286</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" hidden="1">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>290</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>294</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" hidden="1">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>296</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" hidden="1">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>300</v>
       </c>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="15" hidden="1">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>304</v>
       </c>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>308</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>310</v>
       </c>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>312</v>
       </c>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="15" hidden="1">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>314</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>318</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>320</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>322</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>324</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>74</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" hidden="1">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>78</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>82</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>330</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>332</v>
       </c>
@@ -3817,7 +3817,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>334</v>
       </c>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>338</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>340</v>
       </c>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>342</v>
       </c>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>344</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>346</v>
       </c>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>348</v>
       </c>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>350</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>354</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" hidden="1">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>358</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" hidden="1">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>364</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>368</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" hidden="1">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>374</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" hidden="1">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>378</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" hidden="1">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>383</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>388</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" hidden="1">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>392</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>397</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" hidden="1">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>402</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" hidden="1">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>407</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" hidden="1">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>412</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" hidden="1">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>416</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" hidden="1">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>422</v>
       </c>
